--- a/polls/IROS20_Partners_beta.xlsx
+++ b/polls/IROS20_Partners_beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB098448-3E64-403D-815E-0F2BB0FDD03F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5038D29-FA3F-4B54-BC2D-EFEF1ACB7C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="358">
   <si>
     <t>Cartegory</t>
   </si>
@@ -1204,13 +1204,22 @@
     <t>Amazon Science</t>
   </si>
   <si>
-    <t>Facebook AI</t>
-  </si>
-  <si>
-    <t>https://ai.facebook.com/</t>
-  </si>
-  <si>
-    <t>Join us to begin your own. World-class mentors, our open culture, and opportunities to make a real impact are just a few reasons to join the Facebook AI team</t>
+    <t>Yaskawa</t>
+  </si>
+  <si>
+    <t>Honda Research Institute</t>
+  </si>
+  <si>
+    <t>https://usa.honda-ri.com/</t>
+  </si>
+  <si>
+    <t>Honda Research Institute (HRI) was established in 2003 in Japan, the United States, and Europe. Our mission is to adopt a scientific process to create technologies beyond the automotive domain and into new frontiers. </t>
+  </si>
+  <si>
+    <t>https://www.yaskawa-global.com</t>
+  </si>
+  <si>
+    <t>As a ‘technology-centric’ company aiming to be the world’s best, Yaskawa Electric corporation is constantly developing the new robotics technologies.  </t>
   </si>
 </sst>
 </file>
@@ -1861,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5854,8 +5863,14 @@
       <c r="C151" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>353</v>
+      <c r="D151" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>352</v>
@@ -5864,7 +5879,7 @@
         <v>266</v>
       </c>
       <c r="J151" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5878,13 +5893,13 @@
         <v>352</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>352</v>
@@ -5893,7 +5908,7 @@
         <v>266</v>
       </c>
       <c r="J152" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5907,13 +5922,13 @@
         <v>352</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>352</v>
@@ -5922,7 +5937,7 @@
         <v>266</v>
       </c>
       <c r="J153" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -5936,13 +5951,13 @@
         <v>352</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>352</v>
@@ -5951,7 +5966,7 @@
         <v>266</v>
       </c>
       <c r="J154" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -5965,13 +5980,13 @@
         <v>352</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>352</v>
@@ -5980,7 +5995,7 @@
         <v>266</v>
       </c>
       <c r="J155" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -5994,13 +6009,13 @@
         <v>352</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>352</v>
@@ -6009,7 +6024,7 @@
         <v>266</v>
       </c>
       <c r="J156" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -6023,13 +6038,13 @@
         <v>352</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>352</v>
@@ -6038,7 +6053,7 @@
         <v>266</v>
       </c>
       <c r="J157" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -6052,13 +6067,13 @@
         <v>352</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>352</v>
@@ -6067,7 +6082,7 @@
         <v>266</v>
       </c>
       <c r="J158" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6081,13 +6096,13 @@
         <v>352</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>352</v>
@@ -6096,7 +6111,7 @@
         <v>266</v>
       </c>
       <c r="J159" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -6110,13 +6125,13 @@
         <v>352</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>352</v>
@@ -6125,7 +6140,7 @@
         <v>266</v>
       </c>
       <c r="J160" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -6139,13 +6154,13 @@
         <v>352</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>352</v>
@@ -6154,7 +6169,7 @@
         <v>266</v>
       </c>
       <c r="J161" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6168,13 +6183,13 @@
         <v>352</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>352</v>
@@ -6183,7 +6198,7 @@
         <v>266</v>
       </c>
       <c r="J162" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -6197,13 +6212,13 @@
         <v>352</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>352</v>
@@ -6212,7 +6227,7 @@
         <v>266</v>
       </c>
       <c r="J163" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -6226,13 +6241,13 @@
         <v>352</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>352</v>
@@ -6241,7 +6256,7 @@
         <v>266</v>
       </c>
       <c r="J164" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -6255,13 +6270,13 @@
         <v>352</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>352</v>
@@ -6270,7 +6285,7 @@
         <v>266</v>
       </c>
       <c r="J165" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -6284,13 +6299,13 @@
         <v>352</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>352</v>
@@ -6299,7 +6314,7 @@
         <v>266</v>
       </c>
       <c r="J166" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -6313,13 +6328,13 @@
         <v>352</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>352</v>
@@ -6328,7 +6343,7 @@
         <v>266</v>
       </c>
       <c r="J167" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6342,13 +6357,13 @@
         <v>352</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>352</v>
@@ -6357,7 +6372,7 @@
         <v>266</v>
       </c>
       <c r="J168" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6371,13 +6386,13 @@
         <v>352</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>352</v>
@@ -6386,7 +6401,7 @@
         <v>266</v>
       </c>
       <c r="J169" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -6400,13 +6415,13 @@
         <v>352</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>352</v>
@@ -6415,7 +6430,7 @@
         <v>266</v>
       </c>
       <c r="J170" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -6429,13 +6444,13 @@
         <v>352</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>353</v>
+        <v>292</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>352</v>
@@ -6444,210 +6459,30 @@
         <v>266</v>
       </c>
       <c r="J171" s="26" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
-      <c r="A172" s="1">
-        <v>20021</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J172" s="26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="1">
-        <v>20021</v>
+        <v>20022</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F173" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G173" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J173" s="26" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
-      <c r="A174" s="1">
-        <v>20021</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J174" s="26" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
-      <c r="A175" s="1">
-        <v>20021</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J175" s="26" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
-      <c r="A176" s="1">
-        <v>20021</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J176" s="26" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
-      <c r="A177" s="1">
-        <v>20021</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J177" s="26" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
-      <c r="A178" s="1">
-        <v>20021</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J178" s="26" t="s">
-        <v>354</v>
+      <c r="J173" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6673,11 +6508,12 @@
     <hyperlink ref="F74" r:id="rId18" xr:uid="{49937CE6-E8D5-4157-A59D-3DF456C32564}"/>
     <hyperlink ref="F148" r:id="rId19" xr:uid="{4FD94A59-16AD-4F78-A452-61CE06B09527}"/>
     <hyperlink ref="F5" r:id="rId20" xr:uid="{2F022328-097E-4504-9677-E865548FAFD1}"/>
-    <hyperlink ref="F152" r:id="rId21" xr:uid="{2C5E6F86-E2A4-49F5-BC9F-5DAD4FDF732C}"/>
+    <hyperlink ref="F151" r:id="rId21" xr:uid="{AC8AD658-36BB-44E2-B0A7-CB394D802395}"/>
+    <hyperlink ref="F152:F171" r:id="rId22" display="https://www.yaskawa-global.com" xr:uid="{0F5527EA-ABB9-42AF-9C25-3450F910C4BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
-  <legacyDrawing r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -6685,8 +6521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02C559-417D-440E-80D7-0AF2D68A3729}">
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119:B145"/>
+    <sheetView topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146:B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/polls/IROS20_Partners_beta.xlsx
+++ b/polls/IROS20_Partners_beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5038D29-FA3F-4B54-BC2D-EFEF1ACB7C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A7D144-8A34-47FA-88B8-44E5394F5225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C90C33-A2F8-49BC-95C2-22A337B4C8DB}"/>
   </bookViews>
@@ -1210,16 +1210,16 @@
     <t>Honda Research Institute</t>
   </si>
   <si>
-    <t>https://usa.honda-ri.com/</t>
-  </si>
-  <si>
-    <t>Honda Research Institute (HRI) was established in 2003 in Japan, the United States, and Europe. Our mission is to adopt a scientific process to create technologies beyond the automotive domain and into new frontiers. </t>
-  </si>
-  <si>
     <t>https://www.yaskawa-global.com</t>
   </si>
   <si>
     <t>As a ‘technology-centric’ company aiming to be the world’s best, Yaskawa Electric corporation is constantly developing the new robotics technologies.  </t>
+  </si>
+  <si>
+    <t>https://www.jp.honda-ri.com/en/index.html</t>
+  </si>
+  <si>
+    <t>Honda Research Institute (HRI) was established in 2003 in Japan, the United States and Europe with our overarching principle “Innovation through Science.”</t>
   </si>
 </sst>
 </file>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3CA7B-2F7F-49E8-81CC-0A8442F28240}">
   <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5870,7 +5870,7 @@
         <v>292</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>352</v>
@@ -5879,7 +5879,7 @@
         <v>266</v>
       </c>
       <c r="J151" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5899,7 +5899,7 @@
         <v>292</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>352</v>
@@ -5908,7 +5908,7 @@
         <v>266</v>
       </c>
       <c r="J152" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5928,7 +5928,7 @@
         <v>292</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>352</v>
@@ -5937,7 +5937,7 @@
         <v>266</v>
       </c>
       <c r="J153" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -5957,7 +5957,7 @@
         <v>292</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>352</v>
@@ -5966,7 +5966,7 @@
         <v>266</v>
       </c>
       <c r="J154" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -5986,7 +5986,7 @@
         <v>292</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>352</v>
@@ -5995,7 +5995,7 @@
         <v>266</v>
       </c>
       <c r="J155" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -6015,7 +6015,7 @@
         <v>292</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>352</v>
@@ -6024,7 +6024,7 @@
         <v>266</v>
       </c>
       <c r="J156" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -6044,7 +6044,7 @@
         <v>292</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>352</v>
@@ -6053,7 +6053,7 @@
         <v>266</v>
       </c>
       <c r="J157" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -6073,7 +6073,7 @@
         <v>292</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>352</v>
@@ -6082,7 +6082,7 @@
         <v>266</v>
       </c>
       <c r="J158" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6102,7 +6102,7 @@
         <v>292</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>352</v>
@@ -6111,7 +6111,7 @@
         <v>266</v>
       </c>
       <c r="J159" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -6131,7 +6131,7 @@
         <v>292</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>352</v>
@@ -6140,7 +6140,7 @@
         <v>266</v>
       </c>
       <c r="J160" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -6160,7 +6160,7 @@
         <v>292</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>352</v>
@@ -6169,7 +6169,7 @@
         <v>266</v>
       </c>
       <c r="J161" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6189,7 +6189,7 @@
         <v>292</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>352</v>
@@ -6198,7 +6198,7 @@
         <v>266</v>
       </c>
       <c r="J162" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -6218,7 +6218,7 @@
         <v>292</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>352</v>
@@ -6227,7 +6227,7 @@
         <v>266</v>
       </c>
       <c r="J163" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -6247,7 +6247,7 @@
         <v>292</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>352</v>
@@ -6256,7 +6256,7 @@
         <v>266</v>
       </c>
       <c r="J164" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -6276,7 +6276,7 @@
         <v>292</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>352</v>
@@ -6285,7 +6285,7 @@
         <v>266</v>
       </c>
       <c r="J165" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -6305,7 +6305,7 @@
         <v>292</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>352</v>
@@ -6314,7 +6314,7 @@
         <v>266</v>
       </c>
       <c r="J166" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -6334,7 +6334,7 @@
         <v>292</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>352</v>
@@ -6343,7 +6343,7 @@
         <v>266</v>
       </c>
       <c r="J167" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6363,7 +6363,7 @@
         <v>292</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>352</v>
@@ -6372,7 +6372,7 @@
         <v>266</v>
       </c>
       <c r="J168" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6392,7 +6392,7 @@
         <v>292</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>352</v>
@@ -6401,7 +6401,7 @@
         <v>266</v>
       </c>
       <c r="J169" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -6421,7 +6421,7 @@
         <v>292</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>352</v>
@@ -6430,7 +6430,7 @@
         <v>266</v>
       </c>
       <c r="J170" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -6450,7 +6450,7 @@
         <v>292</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>352</v>
@@ -6459,7 +6459,7 @@
         <v>266</v>
       </c>
       <c r="J171" s="26" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -6475,14 +6475,14 @@
       <c r="D173" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F173" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G173" s="1" t="s">
+      <c r="F173" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>353</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6510,10 +6510,11 @@
     <hyperlink ref="F5" r:id="rId20" xr:uid="{2F022328-097E-4504-9677-E865548FAFD1}"/>
     <hyperlink ref="F151" r:id="rId21" xr:uid="{AC8AD658-36BB-44E2-B0A7-CB394D802395}"/>
     <hyperlink ref="F152:F171" r:id="rId22" display="https://www.yaskawa-global.com" xr:uid="{0F5527EA-ABB9-42AF-9C25-3450F910C4BE}"/>
+    <hyperlink ref="F173" r:id="rId23" xr:uid="{D72FC1EA-4843-43CB-8696-75DE2C4D2999}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
 
